--- a/public/data/Gross-to-Net Impact Analysis.xlsx
+++ b/public/data/Gross-to-Net Impact Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Karthik\Files\Proposals\Fresenius\Report Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Task\MS_Report\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{ED41BEF1-ADB2-484D-AA7E-48AE3A769A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31EE52D0-3F0C-4102-B4E8-5F2C4B70453E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE345F21-4896-4614-9573-EB7C22C4BB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{50B92DBF-0CD4-4D85-8FAB-9654606DD71D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{50B92DBF-0CD4-4D85-8FAB-9654606DD71D}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Design" sheetId="1" r:id="rId1"/>
@@ -36,49 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
-  <si>
-    <t>Gross-to-Net (GTN) Impact Analysis Report</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run by:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Admin</t>
-    </r>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Aminomix 1 Novum</t>
   </si>
   <si>
-    <t>GPO</t>
-  </si>
-  <si>
     <t>Premier</t>
   </si>
   <si>
-    <t>Reporting Period:</t>
-  </si>
-  <si>
     <t>Q12025</t>
   </si>
   <si>
@@ -206,35 +171,6 @@
   </si>
   <si>
     <t>AmerisourceBergen</t>
-  </si>
-  <si>
-    <t>Page 1 of 1</t>
-  </si>
-  <si>
-    <t>Confidential Information of Fresenius Kabi.  Do not copy or distribute.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Run Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Jul 07, 2025</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -244,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,12 +195,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -315,14 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,9 +263,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,70 +281,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>943404</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Fresenius Kabi">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0C0215-808F-444D-BC9E-C23EBDF0B8B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="32911" b="31646"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="635000" y="0"/>
-          <a:ext cx="918004" cy="184150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,305 +600,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41606C8F-406B-42BC-A9A5-ACF99FFFAB15}">
-  <dimension ref="B1:AF18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" customWidth="1"/>
+    <col min="32" max="32" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.600000000000001">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22304462</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
+      <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4">
+        <v>120</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2*1073</f>
+        <v>128760</v>
+      </c>
+      <c r="P2" s="5">
+        <f>O2*0.88</f>
+        <v>113308.8</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="R2" s="5">
+        <f>O2*0.12</f>
+        <v>15451.199999999999</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="5">
+        <f>O2*0.05</f>
+        <v>6438</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V2" s="5">
+        <f>O2*0.02</f>
+        <v>2575.2000000000003</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="5">
+        <f>O2*0.015</f>
+        <v>1931.3999999999999</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>O2-R2-T2-V2-X2</f>
+        <v>102364.20000000001</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>O2-Y2</f>
+        <v>26395.799999999988</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>45728</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>45727</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>7042543</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>45728</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:32">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="4" spans="2:32">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32">
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>22304462</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="5">
-        <v>120</v>
-      </c>
-      <c r="P9" s="6">
-        <f>O9*1073</f>
-        <v>128760</v>
-      </c>
-      <c r="Q9" s="6">
-        <f>P9*0.88</f>
-        <v>113308.8</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="S9" s="6">
-        <f>P9*0.12</f>
-        <v>15451.199999999999</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U9" s="6">
-        <f>P9*0.05</f>
-        <v>6438</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="W9" s="6">
-        <f>P9*0.02</f>
-        <v>2575.2000000000003</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="6">
-        <f>P9*0.015</f>
-        <v>1931.3999999999999</v>
-      </c>
-      <c r="Z9" s="10">
-        <f>P9-S9-U9-W9-Y9</f>
-        <v>102364.20000000001</v>
-      </c>
-      <c r="AA9" s="10">
-        <f>P9-Z9</f>
-        <v>26395.799999999988</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>45728</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>45727</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>7042543</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>45728</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32">
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C11:H11"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>